--- a/biology/Biologie cellulaire et moléculaire/KLK5/KLK5.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/KLK5/KLK5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La kallicréine-5 est une sérine protéase exprimée dans l'épiderme. Chez l'homme, elle est codée par le gène KLK5 [5],[6],[7],[8],[9],[10].  Ce gène est l'un des quinze membres de la sous-famille des kallikréines situés dans un cluster sur le chromosome 19. Son expression est régulée positivement par les œstrogènes et les progestatifs. L'épissage alternatif aboutit à plusieurs variants de transcription codant pour la même protéine[10]. 
-KLK5 a été suggéré pour réguler l'excrétion cellulaire (desquamation) en conjonction avec KLK7 et KLK14, compte tenu de sa capacité à dégrader les protéines qui forment le composant extracellulaire des jonctions cellulaires dans la couche cornée. Il est proposé que KLK5 régule ce processus puisqu'il est capable de s'auto-activer en plus d'activer KLK7 et KLK14[11]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La kallicréine-5 est une sérine protéase exprimée dans l'épiderme. Chez l'homme, elle est codée par le gène KLK5 .  Ce gène est l'un des quinze membres de la sous-famille des kallikréines situés dans un cluster sur le chromosome 19. Son expression est régulée positivement par les œstrogènes et les progestatifs. L'épissage alternatif aboutit à plusieurs variants de transcription codant pour la même protéine. 
+KLK5 a été suggéré pour réguler l'excrétion cellulaire (desquamation) en conjonction avec KLK7 et KLK14, compte tenu de sa capacité à dégrader les protéines qui forment le composant extracellulaire des jonctions cellulaires dans la couche cornée. Il est proposé que KLK5 régule ce processus puisqu'il est capable de s'auto-activer en plus d'activer KLK7 et KLK14. 
 </t>
         </is>
       </c>
